--- a/TrueTestRun/App_Data/Requests/EPE-EE-25-022/request.xlsx
+++ b/TrueTestRun/App_Data/Requests/EPE-EE-25-022/request.xlsx
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>EPE-EE Ver2</t>
   </si>
@@ -318,7 +318,7 @@
 発行日</t>
   </si>
   <si>
-    <t>2025-08-21</t>
+    <t>2025-08-28</t>
   </si>
   <si>
     <t xml:space="preserve">Model SX
@@ -339,21 +339,21 @@
 部品コード</t>
   </si>
   <si>
-    <t>DK-9829W3</t>
+    <t>M0120620</t>
   </si>
   <si>
     <t xml:space="preserve">Tên linh kiện
 部品名</t>
   </si>
   <si>
-    <t>Máy Fax</t>
+    <t>KO009</t>
   </si>
   <si>
     <t xml:space="preserve">Nhà cung cấp
 業者名</t>
   </si>
   <si>
-    <t>INDEX</t>
+    <t>INDEXX</t>
   </si>
   <si>
     <t xml:space="preserve">Thay đổi thiết kế: DCI WP202502840 thay đổi nhà máy sản xuất Transformer
@@ -371,7 +371,7 @@
 数量</t>
   </si>
   <si>
-    <t>2</t>
+    <t>7</t>
   </si>
   <si>
     <t xml:space="preserve">Thay đổi công đoạn: thay đổi địa điểm sản xuất
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>　PC</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
   <si>
     <r xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -16643,9 +16646,11 @@
     </row>
     <row r="28" ht="26.45" customHeight="1" s="34" customFormat="1">
       <c r="A28" s="58"/>
-      <c r="B28" s="61"/>
+      <c r="B28" s="61" t="s">
+        <v>41</v>
+      </c>
       <c r="C28" s="147" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28" s="147"/>
       <c r="E28" s="147"/>
@@ -16658,15 +16663,17 @@
       <c r="L28" s="147"/>
       <c r="M28" s="62"/>
       <c r="N28" s="150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O28" s="151"/>
       <c r="P28" s="151"/>
       <c r="Q28" s="152"/>
       <c r="R28" s="59"/>
-      <c r="S28" s="61"/>
+      <c r="S28" s="61" t="s">
+        <v>41</v>
+      </c>
       <c r="T28" s="147" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U28" s="147"/>
       <c r="V28" s="147"/>
@@ -16679,7 +16686,7 @@
       <c r="AC28" s="62"/>
       <c r="AD28" s="62"/>
       <c r="AE28" s="154" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF28" s="155"/>
       <c r="AG28" s="155"/>
@@ -16892,10 +16899,10 @@
       <c r="P34" s="59"/>
       <c r="Q34" s="59"/>
       <c r="R34" s="59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S34" s="59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T34" s="59"/>
       <c r="U34" s="59"/>
@@ -16916,9 +16923,11 @@
     </row>
     <row r="35" ht="23.25" customHeight="1" s="34" customFormat="1">
       <c r="A35" s="58"/>
-      <c r="B35" s="61"/>
+      <c r="B35" s="61" t="s">
+        <v>41</v>
+      </c>
       <c r="C35" s="147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D35" s="148"/>
       <c r="E35" s="148"/>
@@ -16931,7 +16940,7 @@
       <c r="L35" s="148"/>
       <c r="M35" s="149"/>
       <c r="N35" s="150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O35" s="151"/>
       <c r="P35" s="151"/>
@@ -16939,7 +16948,7 @@
       <c r="R35" s="59"/>
       <c r="S35" s="61"/>
       <c r="T35" s="153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U35" s="153"/>
       <c r="V35" s="153"/>
@@ -16952,7 +16961,7 @@
       <c r="AC35" s="62"/>
       <c r="AD35" s="62"/>
       <c r="AE35" s="154" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AF35" s="155"/>
       <c r="AG35" s="155"/>
@@ -17146,7 +17155,7 @@
     </row>
     <row r="41" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A41" s="58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B41" s="59"/>
       <c r="C41" s="59"/>
@@ -17166,7 +17175,7 @@
       <c r="Q41" s="59"/>
       <c r="R41" s="59"/>
       <c r="S41" s="67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T41" s="67"/>
       <c r="U41" s="67"/>
@@ -17188,7 +17197,7 @@
     <row r="42" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A42" s="58"/>
       <c r="B42" s="68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" s="62"/>
       <c r="D42" s="62"/>
@@ -17207,7 +17216,7 @@
       <c r="Q42" s="69"/>
       <c r="R42" s="62"/>
       <c r="S42" s="70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T42" s="62"/>
       <c r="U42" s="62"/>
@@ -17230,7 +17239,7 @@
       <c r="A43" s="58"/>
       <c r="B43" s="71"/>
       <c r="C43" s="72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D43" s="59"/>
       <c r="E43" s="59"/>
@@ -17238,7 +17247,7 @@
       <c r="G43" s="59"/>
       <c r="H43" s="73"/>
       <c r="I43" s="72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J43" s="59"/>
       <c r="K43" s="59"/>
@@ -17250,17 +17259,17 @@
       <c r="Q43" s="109"/>
       <c r="R43" s="59"/>
       <c r="S43" s="74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T43" s="59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U43" s="59"/>
       <c r="V43" s="59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W43" s="59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="X43" s="59"/>
       <c r="Y43" s="59"/>
@@ -17279,7 +17288,7 @@
       <c r="A44" s="96"/>
       <c r="B44" s="97"/>
       <c r="C44" s="72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D44" s="59"/>
       <c r="E44" s="59"/>
@@ -17292,14 +17301,14 @@
       <c r="L44" s="59"/>
       <c r="M44" s="59"/>
       <c r="N44" s="143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O44" s="144"/>
       <c r="P44" s="144"/>
       <c r="Q44" s="145"/>
       <c r="R44" s="59"/>
       <c r="S44" s="74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T44" s="59"/>
       <c r="U44" s="59"/>
@@ -17313,7 +17322,7 @@
       <c r="AC44" s="59"/>
       <c r="AD44" s="59"/>
       <c r="AE44" s="143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF44" s="144"/>
       <c r="AG44" s="144"/>
@@ -17341,7 +17350,7 @@
       <c r="Q45" s="114"/>
       <c r="R45" s="59"/>
       <c r="S45" s="74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T45" s="59"/>
       <c r="U45" s="59"/>
@@ -17513,7 +17522,7 @@
     </row>
     <row r="50" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A50" s="98" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B50" s="59"/>
       <c r="C50" s="99"/>
@@ -17533,7 +17542,7 @@
       <c r="Q50" s="99"/>
       <c r="R50" s="99"/>
       <c r="S50" s="159" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T50" s="159"/>
       <c r="U50" s="159"/>
@@ -17557,7 +17566,7 @@
     <row r="51" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A51" s="58"/>
       <c r="B51" s="68" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C51" s="62"/>
       <c r="D51" s="62"/>
@@ -17576,7 +17585,7 @@
       <c r="Q51" s="69"/>
       <c r="R51" s="62"/>
       <c r="S51" s="74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T51" s="59"/>
       <c r="U51" s="59"/>
@@ -17599,7 +17608,7 @@
       <c r="A52" s="58"/>
       <c r="B52" s="71"/>
       <c r="C52" s="80" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D52" s="59"/>
       <c r="E52" s="59"/>
@@ -17607,7 +17616,7 @@
       <c r="G52" s="59"/>
       <c r="H52" s="73"/>
       <c r="I52" s="80" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J52" s="59"/>
       <c r="K52" s="59"/>
@@ -17619,13 +17628,13 @@
       <c r="Q52" s="109"/>
       <c r="R52" s="59"/>
       <c r="S52" s="81" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T52" s="75"/>
       <c r="U52" s="75"/>
       <c r="V52" s="82"/>
       <c r="W52" s="83" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X52" s="75"/>
       <c r="Y52" s="75"/>
@@ -17653,7 +17662,7 @@
     <row r="53" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A53" s="58"/>
       <c r="B53" s="64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="59"/>
@@ -17667,20 +17676,20 @@
       <c r="L53" s="59"/>
       <c r="M53" s="59"/>
       <c r="N53" s="143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O53" s="144"/>
       <c r="P53" s="144"/>
       <c r="Q53" s="145"/>
       <c r="R53" s="59"/>
       <c r="S53" s="81" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="T53" s="75"/>
       <c r="U53" s="75"/>
       <c r="V53" s="82"/>
       <c r="W53" s="81" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="X53" s="75"/>
       <c r="Y53" s="85"/>
@@ -17690,7 +17699,7 @@
       <c r="AC53" s="75"/>
       <c r="AD53" s="75"/>
       <c r="AE53" s="143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF53" s="144"/>
       <c r="AG53" s="144"/>
@@ -17710,7 +17719,7 @@
     <row r="54" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A54" s="58"/>
       <c r="B54" s="64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="59"/>
@@ -17729,13 +17738,13 @@
       <c r="Q54" s="114"/>
       <c r="R54" s="59"/>
       <c r="S54" s="86" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T54" s="87"/>
       <c r="U54" s="87"/>
       <c r="V54" s="88"/>
       <c r="W54" s="86" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X54" s="87"/>
       <c r="Y54" s="89"/>
@@ -17764,7 +17773,7 @@
     <row r="55" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A55" s="58"/>
       <c r="B55" s="64" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="59"/>
@@ -17783,13 +17792,13 @@
       <c r="Q55" s="114"/>
       <c r="R55" s="59"/>
       <c r="S55" s="86" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T55" s="87"/>
       <c r="U55" s="87"/>
       <c r="V55" s="88"/>
       <c r="W55" s="86" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X55" s="87"/>
       <c r="Y55" s="90"/>
@@ -17817,7 +17826,7 @@
     <row r="56" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A56" s="58"/>
       <c r="B56" s="64" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="59"/>
@@ -17836,13 +17845,13 @@
       <c r="Q56" s="114"/>
       <c r="R56" s="59"/>
       <c r="S56" s="91" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T56" s="87"/>
       <c r="U56" s="87"/>
       <c r="V56" s="88"/>
       <c r="W56" s="91" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X56" s="87"/>
       <c r="Y56" s="87"/>
@@ -18010,7 +18019,7 @@
     </row>
     <row r="60" ht="16.5" customHeight="1" s="34" customFormat="1">
       <c r="A60" s="124" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B60" s="125"/>
       <c r="C60" s="125"/>
@@ -18042,7 +18051,7 @@
       <c r="AC60" s="125"/>
       <c r="AD60" s="126"/>
       <c r="AE60" s="130" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF60" s="131"/>
       <c r="AG60" s="131"/>
@@ -18296,7 +18305,7 @@
     </row>
     <row r="66" ht="23.45" customHeight="1" s="34" customFormat="1">
       <c r="A66" s="110" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B66" s="110"/>
       <c r="C66" s="110"/>
@@ -18440,7 +18449,7 @@
     </row>
     <row r="72" ht="409.5">
       <c r="S72" s="101" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
